--- a/data/trans_dic/P25C_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007018207077680891</v>
+        <v>0.007121198058693367</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005706873653473282</v>
+        <v>0.006447384082212273</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0563959744383373</v>
+        <v>0.05475494252201938</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05375101480352452</v>
+        <v>0.05166158927835066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04130999302160697</v>
+        <v>0.04500866595320636</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.02510039370889615</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05211532077912864</v>
+        <v>0.05211532077912862</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03442005500367382</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008953628897634082</v>
+        <v>0.008884662053410737</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02419797505606245</v>
+        <v>0.02450810913282075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01989829201186192</v>
+        <v>0.01968995503763422</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05246522948252512</v>
+        <v>0.05560175048156536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09339285421717539</v>
+        <v>0.09702178910768468</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05971293192355508</v>
+        <v>0.05869192919877966</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004319335974108777</v>
+        <v>0.004226043330422796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008444483303502285</v>
+        <v>0.008543095144876108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01075842682873129</v>
+        <v>0.0101116444030487</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04733195559261499</v>
+        <v>0.05100703509664512</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08785125083955303</v>
+        <v>0.08804106447267444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04843864739331919</v>
+        <v>0.04687105967452541</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.04431008119138458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03338834199349806</v>
+        <v>0.03338834199349807</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01114420050914484</v>
+        <v>0.01112253809029384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02002674192864855</v>
+        <v>0.01932298462350529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01962946843448024</v>
+        <v>0.0200437173669846</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05179257319202592</v>
+        <v>0.04941048879843239</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08173887537001447</v>
+        <v>0.0819685666656087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05087487139369222</v>
+        <v>0.05200216210879482</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1003</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6927</v>
+        <v>6725</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2841</v>
+        <v>2731</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7257</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2179</v>
+        <v>2207</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5195</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8972</v>
+        <v>9508</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8411</v>
+        <v>8738</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15589</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2670</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7788</v>
+        <v>8392</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7345</v>
+        <v>7361</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12020</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2791</v>
+        <v>2693</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6698</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10455</v>
+        <v>9974</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11391</v>
+        <v>11423</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17360</v>
+        <v>17744</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
     </row>
     <row r="24">
